--- a/medicine/Enfance/Jean_d'Esme/Jean_d'Esme.xlsx
+++ b/medicine/Enfance/Jean_d'Esme/Jean_d'Esme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_d%27Esme</t>
+          <t>Jean_d'Esme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean d’Esme, pseudonyme du vicomte Jean Marie Henri d’Esmenard, né le 27 septembre 1894 à Shanghai en Chine et mort le 24 février 1966 à Nice en France, est un journaliste et écrivain français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_d%27Esme</t>
+          <t>Jean_d'Esme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un fonctionnaire des douanes d'Indochine originaire de La Réunion, Jean d’Esme fait ses études à Paris et entre en 1914 à la section indochinoise de l'École coloniale. Il s’oriente vers le journalisme et les voyages et prend le pseudonyme de Jean d'Esme. Il travaille à la rédaction ou à la direction des journaux Je sais tout, Le Matin et  l'Intransigeant.
 En 1936, il tourne un film dans la région orientale du Niger: La Grande Caravane, sur le voyage d’une caravane vers les mines de sel de Bilma.
 Il écrit une série d’articles pour L'Écho de Paris sur ses impressions en Éthiopie. Il devient un spécialiste du roman colonial dont le plus connu et le plus original est Les Dieux rouges, roman fantastique qui se passe en Indochine française.
 En 1936, directeur de Paris-Soir en reportage  pendant la Guerre d'Espagne, il est emprisonné par les troupes franquistes pour avoir filmé dans des zones interdites.
-En 1941, à la demande du Secrétariat à la jeunesse du Gouvernement de Vichy, il réalise à Ramatuelle le film "Quatre de demain" ayant pour sujet l'histoire d'un village de France qui sous le coup de la défaite reprend confiance et courage à la suite de la visite d'une groupe des Compagnons de France (scouts). Participent au tournage la plupart des habitants de Ramatuelle, dont le président de la légion, le maire, le curé, l'instituteur, le garde-champêtre et le facteur, dans leur propre rôle[1].
+En 1941, à la demande du Secrétariat à la jeunesse du Gouvernement de Vichy, il réalise à Ramatuelle le film "Quatre de demain" ayant pour sujet l'histoire d'un village de France qui sous le coup de la défaite reprend confiance et courage à la suite de la visite d'une groupe des Compagnons de France (scouts). Participent au tournage la plupart des habitants de Ramatuelle, dont le président de la légion, le maire, le curé, l'instituteur, le garde-champêtre et le facteur, dans leur propre rôle.
 Il écrit de nombreux livres pour enfants notamment pour la collection Bibliothèque verte des éditions Hachette.
 Jean d’Esme est membre de l'Académie des sciences d'outre-mer, président de la Société des Écrivains maritimes et coloniaux et de la Société des gens de lettres qu'il préside lors des années 1955-1956. Un collège, construit en 1976, porte son nom à Sainte-Marie (La Réunion).
 </t>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_d%27Esme</t>
+          <t>Jean_d'Esme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(liste exhaustive)
 1920 : Thi-Bâ, fille d'Annam — La Renaissance du livre, collection des Écrivains combattants, 270 p. Prix de Jouy de l’Académie française en 1921.
@@ -574,7 +590,7 @@
 1940 : Les Chevaliers sans éperons — Flammarion, 249 p.
 1944 : Les Nomades de la gloire — Les Publications techniques et artistiques, 255 p.
 1945 : Les Impériaux — Flammarion, 219 p.
-1945 : Le Conquérant de l'île rouge[2] — Nouvelles Éditions latines, 256 p.
+1945 : Le Conquérant de l'île rouge — Nouvelles Éditions latines, 256 p.
 1946 : Chasses aux grands fauves — Nouvelles Éditions latines, coll. "Bibliothèque maritime et coloniale", 222 p.
 1947 : Leclerc — Éditions du Dauphin, 130 p.
 1947 : La Marche vers le soleil — Ed. Colbert, Collection : Trio no 5, 128 p.
